--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
+++ b/Logging_VASTMANLANDS_LAN/Översikt VÄSTMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45119</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45119</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45119</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45121</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45121</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45122</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45125</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45125</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45126</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45126</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45127</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45128</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45128</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45131</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45131</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45131</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45138</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>45138</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>45138</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
